--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FC66D-405E-456D-9320-2D28773A3F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335C50F-20C0-4B28-A467-167A9B89794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39720" yWindow="1860" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$109</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="59">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>Entnahme ING Investieren:</t>
+  </si>
+  <si>
+    <t>American Water Works Co Inc</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb Co.</t>
+  </si>
+  <si>
+    <t>VF Corporation</t>
+  </si>
+  <si>
+    <t>Sysco</t>
+  </si>
+  <si>
+    <t>NEM (EUR)</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,33 +1069,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <v>-4880</v>
+      <c r="D2">
+        <v>-23.9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>-770</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-48544.229999999974</v>
+      <c r="D3" s="1">
+        <v>-4880</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1091,98 +1099,102 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>-395</v>
+        <v>-770</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3">
-        <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>6762.6999999999989</v>
+        <f>SUMIFS(D:D,A:A,"")</f>
+        <v>-53091.299999999974</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>-2340</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="D5">
+        <v>-395</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3">
+        <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
+        <v>7285.1200000000008</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>-837</v>
-      </c>
+      <c r="D6" s="1">
+        <v>-2340</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>-132.56</v>
+        <v>-837</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>-223.45</v>
+        <v>-132.56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>-223.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>-303.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>-385.6</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1190,13 +1202,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>-507.35</v>
+        <v>-385.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1210,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>-887.7</v>
+        <v>-507.35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1218,13 +1230,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>-280.77</v>
+        <v>-887.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1235,10 +1247,10 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>413.76</v>
+        <v>-280.77</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1246,102 +1258,105 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
+        <v>413.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1">
         <v>1385.42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>-803.39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>-764.19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>-783.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>-808.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>-573.22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>-573.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>-785.75</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-2008.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1349,49 +1364,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>-1826.32</v>
+        <v>-1676.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>0.68</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1844.49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1112.05</v>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0.68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1112.05</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1399,27 +1411,27 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28">
-        <v>3.17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>-789.86</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1430,24 +1442,24 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>575.97</v>
+        <v>-789.86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>6.03</v>
+        <v>575.97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1455,24 +1467,27 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
         <v>16.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-1719</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1483,187 +1498,184 @@
         <v>4</v>
       </c>
       <c r="D34" s="1">
+        <v>-1719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
         <v>-1690</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>6.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
         <v>-1047.6600000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0.63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>-1032.42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>-1032.46</v>
+        <v>-1032.42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40">
-        <v>-830.47</v>
+      <c r="D40" s="1">
+        <v>-1032.46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>-931.25</v>
+        <v>-830.47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>-931.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>28</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42">
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
         <v>-50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>-711.66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>-711.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
         <v>-496.13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>-547.65</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>-547.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>-50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <v>7.4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1671,129 +1683,129 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>-50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52">
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
         <v>-550</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>33</v>
       </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>-509.86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>-785.35</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>-620.44000000000005</v>
+        <v>-785.35</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>-603.79</v>
+        <v>-620.44000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57">
-        <v>-895.42</v>
+        <v>-603.79</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="1">
-        <v>-1032.54</v>
+      <c r="D58">
+        <v>-895.42</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-1032.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>31</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
         <v>-50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>7.53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1801,62 +1813,65 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62">
         <v>12.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>-883.09</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="1">
-        <v>-1715</v>
+      <c r="D63">
+        <v>-883.09</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="D64">
-        <v>-801.84</v>
+      <c r="D64" s="1">
+        <v>-1715</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>-50</v>
+        <v>-801.84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1867,27 +1882,24 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>35</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
         <v>-780.84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>0.63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1895,84 +1907,87 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
         <v>6.68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>-50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="1">
-        <v>-1223.74</v>
+      <c r="D71">
+        <v>-50</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="1">
-        <v>-1180</v>
+        <v>-1223.74</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>-1027.45</v>
+        <v>-1180</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
-      <c r="D74">
-        <v>-863.42</v>
+      <c r="D74" s="1">
+        <v>-1027.45</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>-50</v>
+        <v>-863.42</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1982,17 +1997,14 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>7.1</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,13 +2012,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78">
-        <v>3.11</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2014,148 +2026,151 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79">
-        <v>11.78</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>33</v>
       </c>
-      <c r="C80" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80">
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
         <v>-21.26</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B81" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
         <v>43</v>
       </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81">
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
         <v>-524.6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>33</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>630.33000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>-828.96</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>-50</v>
+        <v>-828.96</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>-575.88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>-595.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>21</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="1">
-        <v>7217.75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>-997.17</v>
+      <c r="D87" s="1">
+        <v>7408.02</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="1">
-        <v>-1628.95</v>
+      <c r="D88">
+        <v>-997.17</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="1">
-        <v>-1682.88</v>
+        <v>-1628.95</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
-      <c r="D90">
-        <v>-50</v>
+      <c r="D90" s="1">
+        <v>-1682.88</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2165,91 +2180,91 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D93" s="1">
         <v>2220.33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>-987.35</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>-900.03</v>
+        <v>-987.35</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>-947.25</v>
+        <v>-900.03</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>-947.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>31</v>
       </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96">
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
         <v>-50</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>47</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>10</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>1.89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" t="s">
-        <v>4</v>
-      </c>
-      <c r="D98">
-        <v>-50</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2259,17 +2274,14 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>9</v>
-      </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>16.48</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2277,67 +2289,125 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101">
+        <v>16.48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
         <v>51</v>
       </c>
-      <c r="C102" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1">
         <v>-1015.87</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>9</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>30</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>10</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>6.42</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
         <v>31</v>
       </c>
-      <c r="C104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104">
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
         <v>-50</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D105" s="1"/>
-    </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D106" s="1"/>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>-1149.1500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-1292.1099999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-1016.92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-1027.45</v>
+      </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="G117" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335C50F-20C0-4B28-A467-167A9B89794A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF72AE5-D0B4-40FA-9C1C-0125E5A1D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="1860" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="59">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-53091.299999999974</v>
+        <v>-52163.849999999977</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7285.1200000000008</v>
+        <v>6276.01</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2382,6 +2382,9 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
       <c r="B109" t="s">
         <v>57</v>
       </c>
@@ -2392,16 +2395,102 @@
         <v>-1027.45</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>6.46</v>
+      </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>-50</v>
+      </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>-50</v>
+      </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF72AE5-D0B4-40FA-9C1C-0125E5A1D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37980447-83BB-4D07-AFFD-EF5677B620AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="61">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>NEM (EUR)</t>
+  </si>
+  <si>
+    <t>ABB (Asea Brown Boveri)</t>
+  </si>
+  <si>
+    <t>Encavis AG</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-52163.849999999977</v>
+        <v>-54284.589999999975</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1124,7 +1130,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>6276.01</v>
+        <v>6300.05</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2491,9 +2497,67 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>-50</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>-1055.92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>-1014.82</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37980447-83BB-4D07-AFFD-EF5677B620AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA8A37-44D5-41D0-AD66-E87876534270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$133</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>Encavis AG</t>
+  </si>
+  <si>
+    <t>iShares Core MSCI World UCITS ETF</t>
+  </si>
+  <si>
+    <t>JD.com Inc (spons. ADRs)</t>
+  </si>
+  <si>
+    <t>Halo Collective Inc</t>
+  </si>
+  <si>
+    <t>iShares Core MSCI EM IMI U.ETF</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1124,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-54284.589999999975</v>
+        <v>-56843.13999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1130,7 +1142,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>6300.05</v>
+        <v>7393.8600000000006</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2388,9 +2400,6 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>9</v>
-      </c>
       <c r="B109" t="s">
         <v>57</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2458,7 +2467,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2479,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>32</v>
       </c>
@@ -2482,7 +2491,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>31</v>
       </c>
@@ -2537,7 +2546,7 @@
       <c r="E119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>59</v>
       </c>
@@ -2547,20 +2556,195 @@
       <c r="D120" s="1">
         <v>-1055.92</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
       <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>17.05</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>11.66</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
         <v>60</v>
       </c>
-      <c r="C121" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121">
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1">
         <v>-1014.82</v>
       </c>
+      <c r="F123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>-50</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>-75</v>
+      </c>
+      <c r="F125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>-991.36</v>
+      </c>
+      <c r="F126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>-339.74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>5.95</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DA8A37-44D5-41D0-AD66-E87876534270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C880C-FDFB-4F33-9E49-88C43E38FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="71">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>iShares Core MSCI EM IMI U.ETF</t>
+  </si>
+  <si>
+    <t>Bauer AG</t>
+  </si>
+  <si>
+    <t>HOCHTIEF AG</t>
+  </si>
+  <si>
+    <t>Cameco</t>
+  </si>
+  <si>
+    <t>Franco-Nevada</t>
+  </si>
+  <si>
+    <t>iShares STOXX Europe 600 Construction &amp; Materials UCITS ETF (DE)</t>
+  </si>
+  <si>
+    <t>3D Systems Corporation</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,7 +1142,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-56843.13999999997</v>
+        <v>-61621.729999999967</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1142,7 +1160,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7393.8600000000006</v>
+        <v>7441.9000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2556,9 +2574,6 @@
       <c r="D120" s="1">
         <v>-1055.92</v>
       </c>
-      <c r="F120" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
@@ -2573,9 +2588,6 @@
       <c r="D121">
         <v>17.05</v>
       </c>
-      <c r="F121" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
@@ -2589,9 +2601,6 @@
       </c>
       <c r="D122">
         <v>11.66</v>
-      </c>
-      <c r="F122" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -2604,9 +2613,6 @@
       <c r="D123" s="1">
         <v>-1014.82</v>
       </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
@@ -2618,9 +2624,6 @@
       <c r="D124">
         <v>-50</v>
       </c>
-      <c r="F124" t="s">
-        <v>32</v>
-      </c>
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -2633,9 +2636,6 @@
       <c r="D125">
         <v>-75</v>
       </c>
-      <c r="F125" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
@@ -2647,9 +2647,6 @@
       <c r="D126">
         <v>-991.36</v>
       </c>
-      <c r="F126" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
@@ -2741,6 +2738,281 @@
       </c>
       <c r="D133">
         <v>5.95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>-567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>-536.83000000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>16.28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>-803.89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>-737.53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>32</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>-930.46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>-877.88</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C880C-FDFB-4F33-9E49-88C43E38FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BAD0C1-5010-4EA8-B1CC-62EDCABE78F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$176</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ALBA SE</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Dividende</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>3D Systems Corporation</t>
+  </si>
+  <si>
+    <t>ISHSIV-MSCI CHINA A DL A</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117:F129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1138,11 +1138,11 @@
         <v>-770</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-61621.729999999967</v>
+        <v>-62802.859999999957</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1156,11 +1156,11 @@
         <v>-395</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="3">
-        <f>SUMIFS(D:D,A:A,"d")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7441.9000000000005</v>
+        <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
+        <v>7598.35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1220,14 +1220,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0.67</v>
@@ -1235,10 +1232,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1249,10 +1246,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1263,10 +1260,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1277,10 +1274,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1291,13 +1288,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>413.76</v>
@@ -1305,13 +1302,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>1385.42</v>
@@ -1319,7 +1316,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1330,10 +1327,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1355,10 +1352,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1391,10 +1388,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1415,14 +1412,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>0.68</v>
@@ -1430,41 +1424,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1">
         <v>1112.05</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>3.17</v>
@@ -1472,10 +1460,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1486,47 +1474,41 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>575.97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>6.03</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>16.25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1519,7 @@
         <v>-1719</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1548,23 +1530,20 @@
         <v>-1690</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>6.4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1573,23 +1552,20 @@
         <v>-1047.6600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1598,9 +1574,9 @@
         <v>-1032.42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1609,9 +1585,9 @@
         <v>-1032.46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1620,9 +1596,9 @@
         <v>-830.47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1631,9 +1607,9 @@
         <v>-931.25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1642,23 +1618,20 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1667,9 +1640,9 @@
         <v>-711.66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1678,23 +1651,20 @@
         <v>-496.13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>5.75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1705,7 +1675,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1715,28 +1685,22 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>7.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>38.880000000000003</v>
@@ -1744,7 +1708,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1755,7 +1719,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1766,10 +1730,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1780,7 +1744,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1791,7 +1755,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1802,7 +1766,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1813,7 +1777,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1824,7 +1788,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1835,7 +1799,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1845,28 +1809,22 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>9</v>
-      </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>7.53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>12.65</v>
@@ -1874,7 +1832,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1894,9 +1852,9 @@
         <v>-1715</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1905,9 +1863,9 @@
         <v>-801.84</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1916,9 +1874,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1927,9 +1885,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1938,37 +1896,31 @@
         <v>-780.84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>0.63</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>6.68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1977,9 +1929,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1988,7 +1940,7 @@
         <v>-1223.74</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1999,9 +1951,9 @@
         <v>-1180</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -2010,9 +1962,9 @@
         <v>-1027.45</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -2021,9 +1973,9 @@
         <v>-863.42</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -2032,9 +1984,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -2043,43 +1995,34 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>7.1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>9</v>
-      </c>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>3.11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>11.78</v>
@@ -2087,10 +2030,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2101,7 +2044,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -2112,13 +2055,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>630.33000000000004</v>
@@ -2126,7 +2069,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2137,7 +2080,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -2148,7 +2091,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -2159,13 +2102,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1">
         <v>7408.02</v>
@@ -2173,7 +2116,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -2184,7 +2127,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -2195,7 +2138,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -2206,7 +2149,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2217,7 +2160,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -2228,13 +2171,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1">
         <v>2220.33</v>
@@ -2242,7 +2185,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2253,7 +2196,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2264,7 +2207,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2273,9 +2216,9 @@
         <v>-947.25</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2284,23 +2227,20 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>9</v>
-      </c>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>1.89</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2309,9 +2249,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2320,37 +2260,31 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>9</v>
-      </c>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101">
         <v>16.48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -2359,23 +2293,20 @@
         <v>-1015.87</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>9</v>
-      </c>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>6.42</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2384,9 +2315,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2395,9 +2326,9 @@
         <v>-1149.1500000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -2406,9 +2337,9 @@
         <v>-1292.1099999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2417,9 +2348,9 @@
         <v>-1016.92</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -2428,66 +2359,54 @@
         <v>-1027.45</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>9</v>
-      </c>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>6.22</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>9</v>
-      </c>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>1.74</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>9</v>
-      </c>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>9</v>
-      </c>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113">
         <v>6.46</v>
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -2497,9 +2416,9 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2509,51 +2428,42 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>9</v>
-      </c>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116">
         <v>2.78</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D117">
         <v>13.64</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>9</v>
-      </c>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118">
         <v>10.4</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2564,9 +2474,9 @@
       <c r="E119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -2575,37 +2485,31 @@
         <v>-1055.92</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>9</v>
-      </c>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>17.05</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>9</v>
-      </c>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122">
         <v>11.66</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -2614,9 +2518,9 @@
         <v>-1014.82</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -2624,11 +2528,11 @@
       <c r="D124">
         <v>-50</v>
       </c>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -2637,9 +2541,9 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -2648,9 +2552,9 @@
         <v>-991.36</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -2659,65 +2563,53 @@
         <v>-339.74</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>9</v>
-      </c>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128">
         <v>13.54</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>9</v>
-      </c>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>9</v>
-      </c>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130">
         <v>6.43</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>9</v>
-      </c>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131">
         <v>7.58</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -2726,23 +2618,20 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133">
         <v>5.95</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -2751,9 +2640,9 @@
         <v>-567</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -2762,37 +2651,31 @@
         <v>-536.83000000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>9</v>
-      </c>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>2.02</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>9</v>
-      </c>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -2801,9 +2684,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -2812,23 +2695,20 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>9</v>
-      </c>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140">
         <v>16.28</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -2837,9 +2717,9 @@
         <v>-803.89</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -2848,9 +2728,9 @@
         <v>-737.53</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -2859,9 +2739,9 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -2870,9 +2750,9 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -2881,121 +2761,97 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>6.35</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147">
         <v>2.77</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148">
         <v>1.72</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>2.74</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>9</v>
-      </c>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D151">
         <v>3.68</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>9</v>
-      </c>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D152">
         <v>4.72</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>9</v>
-      </c>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153">
         <v>6.09</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -3004,9 +2860,9 @@
         <v>-930.46</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -3015,8 +2871,239 @@
         <v>-877.88</v>
       </c>
     </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-1265.04</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>60</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D133" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BAD0C1-5010-4EA8-B1CC-62EDCABE78F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D6134-83B2-4E9F-94FA-558D54D4CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="72">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>ISHSIV-MSCI CHINA A DL A</t>
+  </si>
+  <si>
+    <t>Verkauft</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,6 +1098,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1148,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-62802.859999999957</v>
+        <v>-65354.60999999995</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1160,7 +1166,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7598.35</v>
+        <v>7617.92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3100,6 +3106,61 @@
       </c>
       <c r="D176">
         <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-1615</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>-956.32</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>39</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>16.91</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D6134-83B2-4E9F-94FA-558D54D4CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6911EDFC-E3E4-4F4C-8CB2-739E597BC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -1085,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-65354.60999999995</v>
+        <v>-65508.799999999959</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7617.92</v>
+        <v>7663.7300000000005</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3161,6 +3161,127 @@
       </c>
       <c r="D181">
         <v>16.91</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192">
+        <v>7.13</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6911EDFC-E3E4-4F4C-8CB2-739E597BC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87EE71-BD78-457E-8CE3-C236F6AE67EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="72">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -1085,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-65508.799999999959</v>
+        <v>-66185.299999999959</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7663.7300000000005</v>
+        <v>7682.2300000000005</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3282,6 +3282,50 @@
       </c>
       <c r="D192">
         <v>7.13</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>63</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>-620</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>67</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87EE71-BD78-457E-8CE3-C236F6AE67EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C6E02B-E9C0-431A-8DE9-0D83F05F28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$176</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="72">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -1085,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D197" sqref="D197:D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1157,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-66185.299999999959</v>
+        <v>-66303.849999999962</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1166,7 +1175,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7682.2300000000005</v>
+        <v>7688.68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3326,6 +3335,50 @@
       </c>
       <c r="D196">
         <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>56</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C6E02B-E9C0-431A-8DE9-0D83F05F28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628CCBC-8C75-420A-9912-18DC78182C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="74">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Verkauft</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Allianz SE</t>
   </si>
 </sst>
 </file>
@@ -1094,16 +1100,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D197" sqref="D197:D200"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1157,7 +1164,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-66303.849999999962</v>
+        <v>-70201.579999999973</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1175,7 +1182,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7688.68</v>
+        <v>7748.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3379,6 +3386,226 @@
       </c>
       <c r="D200">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>60</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>39</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" s="1">
+        <v>-1107.05</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>63</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>60</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>72</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>-861.94</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>43</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>73</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219">
+        <v>-796.88</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220">
+        <v>-791.98</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F628CCBC-8C75-420A-9912-18DC78182C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D698D2-2FDD-4755-A601-B06FC74B024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="74">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -1100,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226"/>
+      <selection activeCell="K233" sqref="K233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-70201.579999999973</v>
+        <v>-70232.079999999958</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7748.8</v>
+        <v>7793.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -3606,6 +3606,83 @@
       </c>
       <c r="D220">
         <v>-791.98</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>66</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_performance/data/Investitionen_Gesamt.xlsx
+++ b/portfolio_performance/data/Investitionen_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\portfolio_performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D698D2-2FDD-4755-A601-B06FC74B024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1A9F99-7AB6-45C9-B142-E27A27EC0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Investitionen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Investitionen!$A$1:$D$249</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="79">
   <si>
     <t>Wertpapiername</t>
   </si>
@@ -254,6 +254,21 @@
   </si>
   <si>
     <t>Allianz SE</t>
+  </si>
+  <si>
+    <t>Gazprom</t>
+  </si>
+  <si>
+    <t>iShares Edge MSCI World Minimum Volatility UCITS ETF</t>
+  </si>
+  <si>
+    <t>iShares Edge MSCI World Momentum Factor UCITS ETF USD (ACC)</t>
+  </si>
+  <si>
+    <t>Invitae</t>
+  </si>
+  <si>
+    <t>iShares STOXX Europe 600 Construction &amp; Materials UCITS ETF</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K233" sqref="K233"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G240" sqref="G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1180,7 @@
       </c>
       <c r="H4" s="3">
         <f>SUMIFS(D:D,A:A,"")</f>
-        <v>-70232.079999999958</v>
+        <v>-73277.119999999937</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1182,7 +1198,7 @@
       </c>
       <c r="H5" s="3">
         <f>SUMIFS(D:D,C:C,"Dividende")+SUMIFS(D:D,A:A,"x")</f>
-        <v>7793.3</v>
+        <v>8548.7800000000007</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1519,7 +1535,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1546,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1557,7 @@
         <v>-1719</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>-1690</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1579,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>22</v>
       </c>
@@ -1574,7 +1590,7 @@
         <v>-1047.6600000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1601,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1612,7 @@
         <v>-1032.42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1623,7 @@
         <v>-1032.46</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>25</v>
       </c>
@@ -1618,7 +1634,7 @@
         <v>-830.47</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1645,10 @@
         <v>-931.25</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>18</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1681,7 @@
         <v>-711.66</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>29</v>
       </c>
@@ -1673,7 +1692,7 @@
         <v>-496.13</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -1696,6 +1715,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -1729,6 +1751,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
       <c r="B52" t="s">
         <v>27</v>
       </c>
@@ -1820,6 +1845,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
       <c r="B60" t="s">
         <v>30</v>
       </c>
@@ -1853,6 +1881,9 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
       <c r="B63" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +1905,7 @@
         <v>-1715</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1916,10 @@
         <v>-801.84</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +1930,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1941,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>34</v>
       </c>
@@ -1918,7 +1952,7 @@
         <v>-780.84</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +1963,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1974,10 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1988,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>39</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>-1223.74</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +2010,7 @@
         <v>-1180</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>40</v>
       </c>
@@ -1984,7 +2021,7 @@
         <v>-1027.45</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +2032,10 @@
         <v>-863.42</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
       <c r="B76" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2046,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>31</v>
       </c>
@@ -2017,7 +2057,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -2028,7 +2068,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2079,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>16</v>
       </c>
@@ -2101,6 +2141,9 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
       <c r="B85" t="s">
         <v>30</v>
       </c>
@@ -2137,6 +2180,9 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
       <c r="B88" t="s">
         <v>45</v>
       </c>
@@ -2170,6 +2216,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
       <c r="B91" t="s">
         <v>27</v>
       </c>
@@ -2238,7 +2287,10 @@
         <v>-947.25</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
       <c r="B97" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2301,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>46</v>
       </c>
@@ -2260,7 +2312,10 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
       <c r="B99" t="s">
         <v>27</v>
       </c>
@@ -2271,7 +2326,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2337,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>39</v>
       </c>
@@ -2293,7 +2348,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2359,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>-1015.87</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>29</v>
       </c>
@@ -2326,7 +2381,10 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
       <c r="B105" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2395,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>53</v>
       </c>
@@ -2348,7 +2406,7 @@
         <v>-1149.1500000000001</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>54</v>
       </c>
@@ -2359,7 +2417,7 @@
         <v>-1292.1099999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>55</v>
       </c>
@@ -2370,7 +2428,7 @@
         <v>-1016.92</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>56</v>
       </c>
@@ -2381,7 +2439,7 @@
         <v>-1027.45</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>25</v>
       </c>
@@ -2392,7 +2450,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>49</v>
       </c>
@@ -2403,7 +2461,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>43</v>
       </c>
@@ -2414,7 +2472,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>47</v>
       </c>
@@ -2426,7 +2484,10 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
       <c r="B114" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2499,7 @@
       </c>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2511,7 @@
       </c>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2522,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2533,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>16</v>
       </c>
@@ -2483,7 +2544,10 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
       <c r="B119" t="s">
         <v>30</v>
       </c>
@@ -2496,7 +2560,7 @@
       <c r="E119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>58</v>
       </c>
@@ -2507,7 +2571,7 @@
         <v>-1055.92</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>24</v>
       </c>
@@ -2518,7 +2582,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>14</v>
       </c>
@@ -2529,7 +2593,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>59</v>
       </c>
@@ -2540,7 +2604,7 @@
         <v>-1014.82</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>31</v>
       </c>
@@ -2552,7 +2616,10 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
       <c r="B125" t="s">
         <v>60</v>
       </c>
@@ -2563,7 +2630,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>61</v>
       </c>
@@ -2574,7 +2641,7 @@
         <v>-991.36</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>62</v>
       </c>
@@ -2585,7 +2652,7 @@
         <v>-339.74</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>23</v>
       </c>
@@ -2596,7 +2663,7 @@
         <v>13.54</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>56</v>
       </c>
@@ -2607,7 +2674,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2685,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2696,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>63</v>
       </c>
@@ -2640,7 +2707,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>19</v>
       </c>
@@ -2651,7 +2718,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2729,7 @@
         <v>-567</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>65</v>
       </c>
@@ -2673,7 +2740,7 @@
         <v>-536.83000000000004</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2751,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>6</v>
       </c>
@@ -2695,7 +2762,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>31</v>
       </c>
@@ -2706,7 +2773,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
       <c r="B139" t="s">
         <v>60</v>
       </c>
@@ -2717,7 +2787,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>39</v>
       </c>
@@ -2728,7 +2798,7 @@
         <v>16.28</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>66</v>
       </c>
@@ -2739,7 +2809,7 @@
         <v>-803.89</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>67</v>
       </c>
@@ -2750,7 +2820,7 @@
         <v>-737.53</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>31</v>
       </c>
@@ -2761,7 +2831,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
       <c r="B144" t="s">
         <v>60</v>
       </c>
@@ -2948,7 +3021,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>31</v>
       </c>
@@ -2959,7 +3032,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
       <c r="B162" t="s">
         <v>60</v>
       </c>
@@ -2970,7 +3046,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>70</v>
       </c>
@@ -2981,7 +3057,7 @@
         <v>-1265.04</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>22</v>
       </c>
@@ -2992,7 +3068,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3079,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>68</v>
       </c>
@@ -3014,7 +3090,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>24</v>
       </c>
@@ -3025,7 +3101,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>67</v>
       </c>
@@ -3036,7 +3112,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3123,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>63</v>
       </c>
@@ -3058,7 +3134,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3145,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
       <c r="B172" t="s">
         <v>60</v>
       </c>
@@ -3080,7 +3159,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>35</v>
       </c>
@@ -3091,7 +3170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>54</v>
       </c>
@@ -3102,7 +3181,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>29</v>
       </c>
@@ -3113,7 +3192,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>56</v>
       </c>
@@ -3124,7 +3203,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>3</v>
       </c>
@@ -3135,7 +3214,7 @@
         <v>-1615</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>6</v>
       </c>
@@ -3146,7 +3225,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>43</v>
       </c>
@@ -3157,7 +3236,7 @@
         <v>-956.32</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>46</v>
       </c>
@@ -3168,7 +3247,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>39</v>
       </c>
@@ -3179,7 +3258,7 @@
         <v>16.91</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>63</v>
       </c>
@@ -3190,7 +3269,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>31</v>
       </c>
@@ -3201,7 +3280,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
       <c r="B184" t="s">
         <v>60</v>
       </c>
@@ -3212,7 +3294,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>55</v>
       </c>
@@ -3223,7 +3305,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3316,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3327,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>47</v>
       </c>
@@ -3256,7 +3338,7 @@
         <v>6.51</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>49</v>
       </c>
@@ -3267,7 +3349,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>43</v>
       </c>
@@ -3278,7 +3360,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>53</v>
       </c>
@@ -3289,7 +3371,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>25</v>
       </c>
@@ -3300,7 +3382,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>63</v>
       </c>
@@ -3311,7 +3393,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3404,7 @@
         <v>-620</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +3415,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>67</v>
       </c>
@@ -3344,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>31</v>
       </c>
@@ -3355,7 +3437,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
       <c r="B198" t="s">
         <v>60</v>
       </c>
@@ -3366,7 +3451,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>56</v>
       </c>
@@ -3377,7 +3462,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>68</v>
       </c>
@@ -3388,7 +3473,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>63</v>
       </c>
@@ -3399,7 +3484,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>31</v>
       </c>
@@ -3410,7 +3495,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
       <c r="B203" t="s">
         <v>60</v>
       </c>
@@ -3421,7 +3509,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>25</v>
       </c>
@@ -3432,7 +3520,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>6</v>
       </c>
@@ -3443,7 +3531,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>39</v>
       </c>
@@ -3454,7 +3542,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>46</v>
       </c>
@@ -3465,7 +3553,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>34</v>
       </c>
@@ -3476,7 +3564,7 @@
         <v>-1107.05</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>29</v>
       </c>
@@ -3487,7 +3575,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>54</v>
       </c>
@@ -3498,7 +3586,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>63</v>
       </c>
@@ -3509,7 +3597,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>31</v>
       </c>
@@ -3520,7 +3608,10 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
       <c r="B213" t="s">
         <v>60</v>
       </c>
@@ -3531,7 +3622,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>47</v>
       </c>
@@ -3542,7 +3633,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>49</v>
       </c>
@@ -3553,7 +3644,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>72</v>
       </c>
@@ -3564,7 +3655,7 @@
         <v>-861.94</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>43</v>
       </c>
@@ -3575,7 +3666,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>53</v>
       </c>
@@ -3586,7 +3677,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>73</v>
       </c>
@@ -3597,7 +3688,7 @@
         <v>-796.88</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>50</v>
       </c>
@@ -3608,7 +3699,7 @@
         <v>-791.98</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>63</v>
       </c>
@@ -3619,7 +3710,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>67</v>
       </c>
@@ -3630,7 +3721,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>55</v>
       </c>
@@ -3641,7 +3732,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3743,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>24</v>
       </c>
@@ -3663,7 +3754,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>18</v>
       </c>
@@ -3674,7 +3765,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>66</v>
       </c>
@@ -3685,8 +3776,280 @@
         <v>1.78</v>
       </c>
     </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B230" t="s">
+        <v>74</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>-760.08</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B231" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B232" t="s">
+        <v>29</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B233" t="s">
+        <v>40</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>-563.39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="1">
+        <v>-1246.92</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>72</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236">
+        <v>-562.09</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>75</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="1">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1227.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241">
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>60</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243">
+        <v>399.1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>76</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="1">
+        <v>1065.02</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245">
+        <v>728.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>77</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>-668.35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247">
+        <v>563.77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>78</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>60</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D249" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
